--- a/hardware/PCB/DiPLab_AccShield_v02_BOM.xlsx
+++ b/hardware/PCB/DiPLab_AccShield_v02_BOM.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71D2AA9-9032-AE41-ADE7-75FA1B1A9C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="DiPLab_v02_BOM" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="BOM_DiPLab_MS001" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>No.</t>
   </si>
@@ -114,6 +110,27 @@
   </si>
   <si>
     <t>C160404</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>PZ254V-11-04P</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>HDR-TH_4P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>XFCN(兴飞)</t>
+  </si>
+  <si>
+    <t>C2691448</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>LIS3DHTR</t>
@@ -134,14 +151,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,19 +521,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -580,7 +595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -612,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -644,46 +659,78 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>